--- a/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="9705" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="14300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,19 +30,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addKeyToLuaTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addKeyToLuaTable</t>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽园の素敌な巫女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霧雨 魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵魔法程度的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通の黒魔术少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,23 +118,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
+    <t>在天空中飞行的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界の妖怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵境界程度的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝·玛格特罗依德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用魔法程度的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七色の人形遣い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八雲 紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽 霊梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wingmanCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,103 +206,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楽园の素敌な巫女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霧雨 魔理沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操纵魔法程度的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通の黒魔术少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在天空中飞行的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>境界の妖怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操纵境界程度的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱丽丝·玛格特罗依德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用魔法程度的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七色の人形遣い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八雲 紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽 霊梦</t>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,8 +274,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -250,16 +296,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="15">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -587,112 +639,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="22.125" customWidth="1"/>
+    <col min="1" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1"/>
+    <row r="5" spans="1:12" hidden="1"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>10101001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1"/>
-    <row r="5" spans="1:8" hidden="1"/>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>10100001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -701,21 +788,33 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
+      <c r="J6">
+        <v>400001</v>
+      </c>
+      <c r="K6">
+        <v>10200101</v>
+      </c>
+      <c r="L6">
+        <v>10200001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>10100002</v>
+        <v>10102001</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -724,21 +823,24 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>10100003</v>
+        <v>10103001</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -747,21 +849,24 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>10100004</v>
+        <v>10104001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -770,9 +875,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -787,18 +897,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="14300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1065" yWindow="14295" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modelCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,14 +203,30 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -304,14 +317,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -639,20 +651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -669,28 +681,31 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -704,31 +719,34 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -745,30 +763,33 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
       <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1"/>
-    <row r="5" spans="1:12" hidden="1"/>
-    <row r="6" spans="1:12">
+    <row r="4" spans="1:13" hidden="1"/>
+    <row r="5" spans="1:13" hidden="1"/>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>10101001</v>
       </c>
@@ -782,28 +803,31 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>400001</v>
-      </c>
       <c r="K6">
-        <v>10200101</v>
+        <v>40100101</v>
       </c>
       <c r="L6">
+        <v>10510100</v>
+      </c>
+      <c r="M6">
         <v>10200001</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>10102001</v>
       </c>
@@ -817,19 +841,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
+      <c r="K7">
+        <v>40100201</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>10103001</v>
       </c>
@@ -843,19 +873,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>10104001</v>
       </c>
@@ -868,21 +901,24 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
+      <c r="E9">
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -897,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="14295" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="10680" yWindow="8520" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -106,18 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在天空中飞行的能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,14 +207,26 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消弹时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,7 +309,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -317,13 +316,14 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -651,16 +651,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="22.125" customWidth="1"/>
+    <col min="1" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -681,28 +681,28 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -719,31 +719,31 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -763,28 +763,28 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1"/>
@@ -794,13 +794,13 @@
         <v>10101001</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -815,6 +815,9 @@
         <v>3</v>
       </c>
       <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
@@ -824,7 +827,7 @@
         <v>10510100</v>
       </c>
       <c r="M6">
-        <v>10200001</v>
+        <v>10200101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -853,10 +856,19 @@
         <v>3</v>
       </c>
       <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
         <v>40100201</v>
+      </c>
+      <c r="L7">
+        <v>10510100</v>
+      </c>
+      <c r="M7">
+        <v>10200101</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -864,13 +876,13 @@
         <v>10103001</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -885,7 +897,19 @@
         <v>4</v>
       </c>
       <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <v>2</v>
+      </c>
+      <c r="K8">
+        <v>40100201</v>
+      </c>
+      <c r="L8">
+        <v>10510100</v>
+      </c>
+      <c r="M8">
+        <v>10200101</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -893,13 +917,13 @@
         <v>10104001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -914,11 +938,20 @@
         <v>3</v>
       </c>
       <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9">
+        <v>40100201</v>
+      </c>
+      <c r="L9">
+        <v>10510100</v>
+      </c>
+      <c r="M9">
+        <v>10200101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -933,14 +966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="8520" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2860" yWindow="6560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,25 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|48</t>
+  </si>
+  <si>
+    <t>32|48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,19 +671,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -696,16 +716,19 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -737,16 +760,19 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -778,18 +804,21 @@
         <v>42</v>
       </c>
       <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1"/>
-    <row r="5" spans="1:13" hidden="1"/>
-    <row r="6" spans="1:13">
+    <row r="4" spans="1:14" hidden="1"/>
+    <row r="5" spans="1:14" hidden="1"/>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>10101001</v>
       </c>
@@ -820,17 +849,20 @@
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6">
         <v>40100101</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10510100</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10200101</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>10102001</v>
       </c>
@@ -861,17 +893,20 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7">
         <v>40100201</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10510100</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10200101</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>10103001</v>
       </c>
@@ -902,17 +937,20 @@
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8">
         <v>40100201</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10510100</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10200101</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>10104001</v>
       </c>
@@ -943,13 +981,16 @@
       <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9">
         <v>40100201</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10510100</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10200101</v>
       </c>
     </row>

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="6560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2865" yWindow="6555" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -234,18 +234,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32|48</t>
-  </si>
-  <si>
-    <t>32|48</t>
+    <t>"32,48"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"32,48"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -335,14 +337,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -670,18 +671,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -850,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6">
         <v>40100101</v>
@@ -938,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8">
         <v>40100201</v>
@@ -982,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <v>40100201</v>
@@ -1007,14 +1008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
